--- a/project/To do list.xlsx
+++ b/project/To do list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Sl.no</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Real-Time Currency Recognition</t>
   </si>
   <si>
-    <t>UI in flutter</t>
-  </si>
-  <si>
     <t>Akash T</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>In progress(15%)</t>
+  </si>
+  <si>
+    <t>Frontend</t>
   </si>
 </sst>
 </file>
@@ -213,9 +213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,6 +232,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,210 +533,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
